--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H69"/>
+  <dimension ref="B2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D34" sqref="D33:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A41" sqref="A39:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1337,9 +1337,7 @@
     <row r="40" spans="2:8">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1355,146 +1353,90 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="1">
-        <v>38</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="1">
-        <v>39</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="1">
-        <v>40</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="1">
-        <v>41</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="1">
-        <v>42</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="1">
-        <v>43</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="1">
-        <v>44</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="1">
-        <v>45</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="1">
-        <v>46</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="1">
-        <v>47</v>
-      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1537,107 +1479,73 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="1">
-        <v>48</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="D56" s="6"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="1">
-        <v>49</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="D57" s="6"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="1">
-        <v>50</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D58" s="6"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="1">
-        <v>51</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="1">
-        <v>52</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="1">
-        <v>53</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="1">
-        <v>54</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="1">
-        <v>55</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1645,13 +1553,9 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="1">
-        <v>56</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="D64" s="6"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1659,11 +1563,11 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1672,11 +1576,11 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1685,66 +1589,369 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="1">
+        <v>40</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="1">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="1">
+        <v>42</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="1">
+        <v>43</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="1">
+        <v>44</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="1">
+        <v>45</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="1">
+        <v>46</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="1">
+        <v>47</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="1">
+        <v>48</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="1">
+        <v>50</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="1">
+        <v>51</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="1">
+        <v>52</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="1">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="1">
+        <v>54</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="1">
+        <v>55</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="1">
+        <v>56</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="1">
+        <v>57</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="1">
+        <v>58</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="1">
         <v>59</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8" ht="25.5">
-      <c r="B68" s="1">
+      <c r="E90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="1">
         <v>60</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" ht="25.5">
-      <c r="B69" s="1">
+      <c r="E91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" ht="25.5">
+      <c r="B92" s="1">
         <v>61</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/pruebas y controles.xlsx
+++ b/pruebas y controles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t>menor</t>
   </si>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,6 +328,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H92"/>
+  <dimension ref="B2:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A41" sqref="A39:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1205,288 +1212,6 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
     <row r="57" spans="2:8">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1499,7 +1224,9 @@
     <row r="58" spans="2:8">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1515,37 +1242,75 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="1"/>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="D60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="1"/>
+      <c r="B61" s="1">
+        <v>31</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="D61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="1"/>
+      <c r="B62" s="1">
+        <v>32</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="D62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="1"/>
+      <c r="B63" s="1">
+        <v>33</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1553,9 +1318,13 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="1"/>
+      <c r="B64" s="1">
+        <v>34</v>
+      </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1563,11 +1332,11 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1576,37 +1345,53 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="1">
-        <v>39</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="1">
-        <v>40</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -1615,11 +1400,11 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -1628,11 +1413,11 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -1641,53 +1426,37 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="1">
-        <v>44</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="1">
-        <v>45</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -1696,48 +1465,80 @@
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="1">
-        <v>47</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="1">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="1">
         <v>46</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="1"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="1"/>
+      <c r="B77" s="1">
+        <v>47</v>
+      </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="1"/>
+      <c r="B78" s="1">
+        <v>48</v>
+      </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -1745,11 +1546,11 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -1758,11 +1559,11 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -1771,11 +1572,11 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -1784,11 +1585,13 @@
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="1">
+        <v>52</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -1797,13 +1600,13 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -1812,13 +1615,11 @@
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="1">
+        <v>54</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -1827,11 +1628,11 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -1840,11 +1641,11 @@
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -1853,11 +1654,11 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -1866,11 +1667,11 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -1879,26 +1680,34 @@
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="1">
+        <v>59</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>68</v>
@@ -1911,15 +1720,15 @@
       </c>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" ht="25.5">
       <c r="B91" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>68</v>
@@ -1932,26 +1741,32 @@
       </c>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="25.5">
-      <c r="B92" s="1">
-        <v>61</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H92" s="1"/>
+    <row r="94" spans="2:8">
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
